--- a/excel/collective/zestawy_dla_uczniow/zestaw_031.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_031.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
   <si>
     <t>ZESTAW ZADAŃ NR 31 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Wojciech Jankowski</t>
-  </si>
-  <si>
-    <t>Jakub Kaczmarek</t>
-  </si>
-  <si>
-    <t>Maja Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Amelia Lis</t>
-  </si>
-  <si>
-    <t>Hanna Jaworska</t>
+    <t>Antoni Szymański</t>
+  </si>
+  <si>
+    <t>Mikołaj Piotrowski</t>
+  </si>
+  <si>
+    <t>Anna Borkowska</t>
+  </si>
+  <si>
+    <t>Emilia Maciejewska</t>
+  </si>
+  <si>
+    <t>Adam Kowalski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>3,80</t>
+  </si>
+  <si>
+    <t>Cyrkiel</t>
+  </si>
+  <si>
+    <t>11,40</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>1,20</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>5,30</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,00</t>
+  </si>
+  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>23,30</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>3,40</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>1,00</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>1,10</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>2,00</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>3,50</t>
+    <t>22,10</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>3,92</t>
+    <t>28,93</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>3,10</t>
+    <t>4,30</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>4,31</t>
+    <t>22,58</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>19,80</t>
+    <t>18,37</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>7,92</t>
+    <t>7,68</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>8,79</t>
-  </si>
-  <si>
-    <t>3,14</t>
-  </si>
-  <si>
-    <t>2,90</t>
-  </si>
-  <si>
-    <t>18,65</t>
-  </si>
-  <si>
-    <t>18,34</t>
+    <t>8,46</t>
+  </si>
+  <si>
+    <t>24,50</t>
+  </si>
+  <si>
+    <t>21,37</t>
+  </si>
+  <si>
+    <t>23,65</t>
+  </si>
+  <si>
+    <t>29,13</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>29,78</t>
-  </si>
-  <si>
-    <t>14,01</t>
-  </si>
-  <si>
-    <t>30,45</t>
-  </si>
-  <si>
-    <t>13,63</t>
-  </si>
-  <si>
-    <t>1,22</t>
+    <t>17,94</t>
+  </si>
+  <si>
+    <t>6,80</t>
+  </si>
+  <si>
+    <t>1,13</t>
+  </si>
+  <si>
+    <t>10,15</t>
+  </si>
+  <si>
+    <t>22,17</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,42 +340,33 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Jakub</t>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>Wojciech</t>
+  </si>
+  <si>
+    <t>Wójcik</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Maciejewska</t>
+  </si>
+  <si>
+    <t>Aleksander</t>
   </si>
   <si>
     <t>Dąbrowski</t>
   </si>
   <si>
-    <t>Kaczmarek</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Maciejewska</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
     <t>Średnia przedmiotu:</t>
   </si>
   <si>
@@ -409,148 +400,112 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
+    <t>Zuzanna Bednarska</t>
+  </si>
+  <si>
+    <t>14.05.1980</t>
+  </si>
+  <si>
+    <t>10 188,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Woźniak</t>
+  </si>
+  <si>
+    <t>26.12.1997</t>
+  </si>
+  <si>
+    <t>8 568,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Kwiatkowski</t>
+  </si>
+  <si>
+    <t>24.07.1998</t>
+  </si>
+  <si>
+    <t>14 217,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Szymański</t>
+  </si>
+  <si>
+    <t>25.10.1989</t>
+  </si>
+  <si>
+    <t>8 518,00 zł</t>
+  </si>
+  <si>
     <t>Mikołaj Zieliński</t>
   </si>
   <si>
-    <t>10.02.2004</t>
-  </si>
-  <si>
-    <t>13 913,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Lis</t>
-  </si>
-  <si>
-    <t>20.07.1991</t>
-  </si>
-  <si>
-    <t>10 838,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Sikorska</t>
-  </si>
-  <si>
-    <t>28.07.1998</t>
-  </si>
-  <si>
-    <t>9 668,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Czarnecka</t>
-  </si>
-  <si>
-    <t>18.12.1977</t>
-  </si>
-  <si>
-    <t>9 101,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Rogalska</t>
-  </si>
-  <si>
-    <t>08.05.2003</t>
-  </si>
-  <si>
-    <t>11 598,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Kamiński</t>
-  </si>
-  <si>
-    <t>03.06.2000</t>
-  </si>
-  <si>
-    <t>3 041,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Piekarska</t>
-  </si>
-  <si>
-    <t>01.05.1980</t>
-  </si>
-  <si>
-    <t>8 887,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Dąbrowski</t>
-  </si>
-  <si>
-    <t>19.01.1987</t>
-  </si>
-  <si>
-    <t>3 068,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Kaczmarek</t>
-  </si>
-  <si>
-    <t>24.06.1998</t>
-  </si>
-  <si>
-    <t>8 351,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Sikorska</t>
-  </si>
-  <si>
-    <t>28.02.1985</t>
-  </si>
-  <si>
-    <t>4 540,00 zł</t>
-  </si>
-  <si>
-    <t>Maja Wójcik</t>
-  </si>
-  <si>
-    <t>19.06.2002</t>
-  </si>
-  <si>
-    <t>7 660,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Nowak</t>
-  </si>
-  <si>
-    <t>08.04.1996</t>
-  </si>
-  <si>
-    <t>5 090,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Górska</t>
-  </si>
-  <si>
-    <t>12.05.1997</t>
-  </si>
-  <si>
-    <t>3 256,00 zł</t>
-  </si>
-  <si>
-    <t>Oliwia Lis</t>
-  </si>
-  <si>
-    <t>13.07.1982</t>
-  </si>
-  <si>
-    <t>8 238,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Kozłowski</t>
-  </si>
-  <si>
-    <t>02.01.1990</t>
-  </si>
-  <si>
-    <t>9 116,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Piekarska</t>
-  </si>
-  <si>
-    <t>11.11.1995</t>
-  </si>
-  <si>
-    <t>8 486,00 zł</t>
+    <t>17.07.1999</t>
+  </si>
+  <si>
+    <t>12 504,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Piotrowski</t>
+  </si>
+  <si>
+    <t>01.02.1978</t>
+  </si>
+  <si>
+    <t>8 577,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>12.09.1975</t>
+  </si>
+  <si>
+    <t>13 971,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Kubiak</t>
+  </si>
+  <si>
+    <t>21.11.1985</t>
+  </si>
+  <si>
+    <t>10 091,00 zł</t>
+  </si>
+  <si>
+    <t>Szymon Kaczmarek</t>
+  </si>
+  <si>
+    <t>18.06.2002</t>
+  </si>
+  <si>
+    <t>11 716,00 zł</t>
+  </si>
+  <si>
+    <t>Adam Nowak</t>
+  </si>
+  <si>
+    <t>04.07.1982</t>
+  </si>
+  <si>
+    <t>13 654,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Szymański</t>
+  </si>
+  <si>
+    <t>10.11.1975</t>
+  </si>
+  <si>
+    <t>7 065,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Woźniak</t>
+  </si>
+  <si>
+    <t>19.08.1998</t>
+  </si>
+  <si>
+    <t>5 749,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -622,292 +577,298 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 013,00 zł</t>
-  </si>
-  <si>
-    <t>1 124,00 zł</t>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>691,00 zł</t>
+  </si>
+  <si>
+    <t>760,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>1 476,00 zł</t>
+  </si>
+  <si>
+    <t>2 066,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 263,00 zł</t>
+  </si>
+  <si>
+    <t>1 516,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 218,00 zł</t>
+  </si>
+  <si>
+    <t>1 608,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>609,00 zł</t>
+  </si>
+  <si>
+    <t>694,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>844,00 zł</t>
+  </si>
+  <si>
+    <t>971,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>1 065,00 zł</t>
+  </si>
+  <si>
+    <t>1 299,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 283,00 zł</t>
+  </si>
+  <si>
+    <t>1 617,00 zł</t>
   </si>
   <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>1 492,00 zł</t>
+  </si>
+  <si>
+    <t>1 984,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 279,00 zł</t>
+  </si>
+  <si>
+    <t>1 765,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>1 050,00 zł</t>
+  </si>
+  <si>
+    <t>1 449,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>973,00 zł</t>
+  </si>
+  <si>
+    <t>1 070,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>737,00 zł</t>
+  </si>
+  <si>
+    <t>862,00 zł</t>
+  </si>
+  <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>Luty</t>
+    <t>1 229,00 zł</t>
+  </si>
+  <si>
+    <t>1 426,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>998,00 zł</t>
+  </si>
+  <si>
+    <t>1 208,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>1 274,00 zł</t>
+  </si>
+  <si>
+    <t>1 694,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>840,00 zł</t>
+  </si>
+  <si>
+    <t>1 075,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 027,00 zł</t>
-  </si>
-  <si>
-    <t>1 417,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 232,00 zł</t>
-  </si>
-  <si>
-    <t>1 626,00 zł</t>
+    <t>1 421,00 zł</t>
+  </si>
+  <si>
+    <t>1 862,00 zł</t>
+  </si>
+  <si>
+    <t>582,00 zł</t>
+  </si>
+  <si>
+    <t>809,00 zł</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 446,00 zł</t>
+  </si>
+  <si>
+    <t>1 894,00 zł</t>
+  </si>
+  <si>
+    <t>1 692,00 zł</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 278,00 zł</t>
+  </si>
+  <si>
+    <t>1 751,00 zł</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>1 255,00 zł</t>
+  </si>
+  <si>
+    <t>1 707,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>1 840,00 zł</t>
   </si>
   <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 116,00 zł</t>
-  </si>
-  <si>
-    <t>1 373,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 444,00 zł</t>
-  </si>
-  <si>
-    <t>1 819,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 353,00 zł</t>
-  </si>
-  <si>
-    <t>1 772,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>1 300,00 zł</t>
-  </si>
-  <si>
-    <t>1 521,00 zł</t>
-  </si>
-  <si>
-    <t>1 120,00 zł</t>
-  </si>
-  <si>
-    <t>1 568,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Styczeń</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 464,00 zł</t>
-  </si>
-  <si>
-    <t>1 815,00 zł</t>
+    <t>1 006,00 zł</t>
+  </si>
+  <si>
+    <t>1 157,00 zł</t>
   </si>
   <si>
     <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>1 410,00 zł</t>
-  </si>
-  <si>
-    <t>1 777,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 372,00 zł</t>
-  </si>
-  <si>
-    <t>1 592,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>1 238,00 zł</t>
-  </si>
-  <si>
-    <t>1 634,00 zł</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 008,00 zł</t>
-  </si>
-  <si>
-    <t>1 401,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>525,00 zł</t>
-  </si>
-  <si>
-    <t>725,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 207,00 zł</t>
-  </si>
-  <si>
-    <t>1 485,00 zł</t>
-  </si>
-  <si>
-    <t>505,00 zł</t>
-  </si>
-  <si>
-    <t>651,00 zł</t>
-  </si>
-  <si>
-    <t>1 139,00 zł</t>
-  </si>
-  <si>
-    <t>1 481,00 zł</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 446,00 zł</t>
-  </si>
-  <si>
-    <t>1 851,00 zł</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>943,00 zł</t>
-  </si>
-  <si>
-    <t>1 179,00 zł</t>
-  </si>
-  <si>
-    <t>620,00 zł</t>
-  </si>
-  <si>
-    <t>682,00 zł</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>949,00 zł</t>
-  </si>
-  <si>
-    <t>1 224,00 zł</t>
-  </si>
-  <si>
-    <t>1 436,00 zł</t>
-  </si>
-  <si>
-    <t>1 881,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>870,00 zł</t>
-  </si>
-  <si>
-    <t>1 201,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 269,00 zł</t>
-  </si>
-  <si>
-    <t>1 574,00 zł</t>
-  </si>
-  <si>
-    <t>733,00 zł</t>
-  </si>
-  <si>
-    <t>858,00 zł</t>
-  </si>
-  <si>
-    <t>1 387,00 zł</t>
-  </si>
-  <si>
-    <t>1 595,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>890,00 zł</t>
-  </si>
-  <si>
-    <t>1 041,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1464,19 +1425,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
         <v>5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>4</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1485,13 +1446,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -1506,10 +1467,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3">
         <v>5</v>
@@ -1518,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1527,19 +1488,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1548,7 +1509,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -1557,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
@@ -1569,19 +1530,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
         <v>6</v>
       </c>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
       <c r="E22" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1590,13 +1551,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
         <v>6</v>
@@ -1611,19 +1572,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3">
         <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1638,13 +1599,13 @@
         <v>3</v>
       </c>
       <c r="D25" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1656,13 +1617,13 @@
         <v>4</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
         <v>3</v>
@@ -1674,19 +1635,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="3">
         <v>3</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1695,16 +1656,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
         <v>6</v>
       </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>3</v>
-      </c>
       <c r="E28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28" s="3">
         <v>5</v>
@@ -1829,7 +1790,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1844,7 +1805,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1859,7 +1820,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1874,7 +1835,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1889,7 +1850,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1904,7 +1865,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2021,7 +1982,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2033,7 +1994,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2045,7 +2006,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2057,7 +2018,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2069,7 +2030,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2117,7 +2078,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2129,7 +2090,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2153,7 +2114,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2165,7 +2126,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2213,7 +2174,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2225,7 +2186,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2237,7 +2198,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2249,7 +2210,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2261,7 +2222,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2295,10 +2256,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A19" sqref="A19:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2407,22 +2368,22 @@
         <v>2</v>
       </c>
       <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
       <c r="H12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2436,25 +2397,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6</v>
-      </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2462,31 +2423,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
         <v>6</v>
       </c>
-      <c r="F14" s="3">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2494,31 +2455,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
       <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>6</v>
       </c>
-      <c r="F15" s="3">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
         <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>6</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2526,28 +2487,28 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
         <v>6</v>
       </c>
-      <c r="F16" s="3">
-        <v>4</v>
-      </c>
       <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3">
         <v>6</v>
-      </c>
-      <c r="H16" s="3">
-        <v>4</v>
-      </c>
-      <c r="I16" s="3">
-        <v>2</v>
       </c>
       <c r="J16" s="3">
         <v>2</v>
@@ -2558,70 +2519,54 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
       </c>
       <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
         <v>4</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3</v>
-      </c>
       <c r="J17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="3">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2635,27 +2580,11 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D19:L19"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2668,10 +2597,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A30" sqref="A30:B32"/>
+      <selection activeCell="A26" sqref="A26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2683,7 +2612,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2693,243 +2622,199 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="B26" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="B27" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B28" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2947,10 +2832,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:B50"/>
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2966,7 +2851,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2976,75 +2861,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3052,22 +2937,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3075,22 +2960,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3098,22 +2983,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3121,22 +3006,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3144,22 +3029,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3167,22 +3052,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3190,22 +3075,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3213,22 +3098,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3236,22 +3121,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3259,22 +3144,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3282,22 +3167,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3305,22 +3190,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3328,22 +3213,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3351,22 +3236,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3374,22 +3259,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3397,22 +3282,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3420,22 +3305,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3443,22 +3328,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3466,22 +3351,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3489,22 +3374,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3512,22 +3397,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>276</v>
+        <v>186</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3535,22 +3420,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3558,22 +3443,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>285</v>
+        <v>195</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3581,22 +3466,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3604,113 +3489,67 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>221</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>177</v>
+      <c r="A45" t="s">
+        <v>284</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>299</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>300</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_031.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_031.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>ZESTAW ZADAŃ NR 31 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 31 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>3,80</t>
-  </si>
-  <si>
     <t>Cyrkiel</t>
   </si>
   <si>
-    <t>11,40</t>
-  </si>
-  <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,20</t>
-  </si>
-  <si>
     <t>Pędzelek</t>
   </si>
   <si>
-    <t>5,30</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,00</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>22,10</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>28,93</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>4,30</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>22,58</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>18,37</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>7,68</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>8,46</t>
-  </si>
-  <si>
-    <t>24,50</t>
-  </si>
-  <si>
-    <t>21,37</t>
-  </si>
-  <si>
-    <t>23,65</t>
-  </si>
-  <si>
-    <t>29,13</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>17,94</t>
-  </si>
-  <si>
-    <t>6,80</t>
-  </si>
-  <si>
-    <t>1,13</t>
-  </si>
-  <si>
-    <t>10,15</t>
-  </si>
-  <si>
-    <t>22,17</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -406,108 +328,72 @@
     <t>14.05.1980</t>
   </si>
   <si>
-    <t>10 188,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Woźniak</t>
   </si>
   <si>
     <t>26.12.1997</t>
   </si>
   <si>
-    <t>8 568,00 zł</t>
-  </si>
-  <si>
     <t>Adam Kwiatkowski</t>
   </si>
   <si>
     <t>24.07.1998</t>
   </si>
   <si>
-    <t>14 217,00 zł</t>
-  </si>
-  <si>
     <t>Filip Szymański</t>
   </si>
   <si>
     <t>25.10.1989</t>
   </si>
   <si>
-    <t>8 518,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Zieliński</t>
   </si>
   <si>
     <t>17.07.1999</t>
   </si>
   <si>
-    <t>12 504,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Piotrowski</t>
   </si>
   <si>
     <t>01.02.1978</t>
   </si>
   <si>
-    <t>8 577,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Kaźmierczak</t>
   </si>
   <si>
     <t>12.09.1975</t>
   </si>
   <si>
-    <t>13 971,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Kubiak</t>
   </si>
   <si>
     <t>21.11.1985</t>
   </si>
   <si>
-    <t>10 091,00 zł</t>
-  </si>
-  <si>
     <t>Szymon Kaczmarek</t>
   </si>
   <si>
     <t>18.06.2002</t>
   </si>
   <si>
-    <t>11 716,00 zł</t>
-  </si>
-  <si>
     <t>Adam Nowak</t>
   </si>
   <si>
     <t>04.07.1982</t>
   </si>
   <si>
-    <t>13 654,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Szymański</t>
   </si>
   <si>
     <t>10.11.1975</t>
   </si>
   <si>
-    <t>7 065,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Woźniak</t>
   </si>
   <si>
     <t>19.08.1998</t>
   </si>
   <si>
-    <t>5 749,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -520,9 +406,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -583,12 +466,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>691,00 zł</t>
-  </si>
-  <si>
-    <t>760,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -601,12 +478,6 @@
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>1 476,00 zł</t>
-  </si>
-  <si>
-    <t>2 066,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
@@ -619,12 +490,6 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 263,00 zł</t>
-  </si>
-  <si>
-    <t>1 516,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -634,12 +499,6 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 218,00 zł</t>
-  </si>
-  <si>
-    <t>1 608,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -652,12 +511,6 @@
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>609,00 zł</t>
-  </si>
-  <si>
-    <t>694,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -667,12 +520,6 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>844,00 zł</t>
-  </si>
-  <si>
-    <t>971,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -682,36 +529,18 @@
     <t>luty</t>
   </si>
   <si>
-    <t>1 065,00 zł</t>
-  </si>
-  <si>
-    <t>1 299,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 283,00 zł</t>
-  </si>
-  <si>
-    <t>1 617,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
     <t>kwiecień</t>
   </si>
   <si>
-    <t>1 492,00 zł</t>
-  </si>
-  <si>
-    <t>1 984,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -721,151 +550,61 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 279,00 zł</t>
-  </si>
-  <si>
-    <t>1 765,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
     <t>Pamięć RAM 16GB</t>
   </si>
   <si>
-    <t>1 050,00 zł</t>
-  </si>
-  <si>
-    <t>1 449,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>973,00 zł</t>
-  </si>
-  <si>
-    <t>1 070,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
     <t>lubelskie</t>
   </si>
   <si>
-    <t>737,00 zł</t>
-  </si>
-  <si>
-    <t>862,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>1 229,00 zł</t>
-  </si>
-  <si>
-    <t>1 426,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>998,00 zł</t>
-  </si>
-  <si>
-    <t>1 208,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>1 274,00 zł</t>
-  </si>
-  <si>
-    <t>1 694,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>840,00 zł</t>
-  </si>
-  <si>
-    <t>1 075,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 421,00 zł</t>
-  </si>
-  <si>
-    <t>1 862,00 zł</t>
-  </si>
-  <si>
-    <t>582,00 zł</t>
-  </si>
-  <si>
-    <t>809,00 zł</t>
-  </si>
-  <si>
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 446,00 zł</t>
-  </si>
-  <si>
-    <t>1 894,00 zł</t>
-  </si>
-  <si>
-    <t>1 692,00 zł</t>
-  </si>
-  <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 278,00 zł</t>
-  </si>
-  <si>
-    <t>1 751,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
-    <t>1 255,00 zł</t>
-  </si>
-  <si>
-    <t>1 707,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
-    <t>1 840,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>1 006,00 zł</t>
-  </si>
-  <si>
-    <t>1 157,00 zł</t>
   </si>
   <si>
     <t>Anna Nowak</t>
@@ -890,7 +629,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -947,14 +688,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -965,8 +706,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -997,30 +738,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1323,7 +1065,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1398,25 +1140,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1439,7 +1181,7 @@
       <c r="F17" s="3">
         <v>5</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1460,7 +1202,7 @@
       <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1481,7 +1223,7 @@
       <c r="F19" s="3">
         <v>5</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1502,7 +1244,7 @@
       <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1523,7 +1265,7 @@
       <c r="F21" s="3">
         <v>4</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1544,7 +1286,7 @@
       <c r="F22" s="3">
         <v>6</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1565,7 +1307,7 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1586,7 +1328,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1607,7 +1349,7 @@
       <c r="F25" s="3">
         <v>2</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1628,7 +1370,7 @@
       <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1649,7 +1391,7 @@
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1670,27 +1412,17 @@
       <c r="F28" s="3">
         <v>5</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1724,7 +1456,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1744,7 +1476,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1754,29 +1486,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1784,99 +1516,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3.8</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>11.4</v>
       </c>
       <c r="D14" s="3">
         <v>7</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.2</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>5.3</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>22.1</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1909,7 +1641,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1934,113 +1666,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>28.93</v>
       </c>
       <c r="C15" s="3">
         <v>47</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>4.3</v>
       </c>
       <c r="C16" s="3">
         <v>47</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>22.58</v>
       </c>
       <c r="C17" s="3">
         <v>10</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>18.37</v>
       </c>
       <c r="C18" s="3">
         <v>48</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>7.68</v>
       </c>
       <c r="C19" s="3">
         <v>13</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2049,94 +1781,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>8.46</v>
       </c>
       <c r="C24" s="3">
         <v>45</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>24.5</v>
       </c>
       <c r="C25" s="3">
         <v>17</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>21.37</v>
       </c>
       <c r="C26" s="3">
         <v>27</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>23.65</v>
       </c>
       <c r="C27" s="3">
         <v>13</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>29.13</v>
       </c>
       <c r="C28" s="3">
         <v>42</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2145,98 +1877,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>17.94</v>
       </c>
       <c r="C33" s="3">
         <v>16</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>6.8</v>
       </c>
       <c r="C34" s="3">
         <v>11</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>1.13</v>
       </c>
       <c r="C35" s="3">
         <v>22</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>10.15</v>
       </c>
       <c r="C36" s="3">
         <v>22</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>22.17</v>
       </c>
       <c r="C37" s="3">
         <v>29</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2259,7 +1991,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2279,90 +2011,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -2385,16 +2117,16 @@
       <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -2417,16 +2149,16 @@
       <c r="J13" s="3">
         <v>5</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -2449,16 +2181,16 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
@@ -2481,16 +2213,16 @@
       <c r="J15" s="3">
         <v>4</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -2513,16 +2245,16 @@
       <c r="J16" s="3">
         <v>2</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
@@ -2545,40 +2277,40 @@
       <c r="J17" s="3">
         <v>5</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2611,211 +2343,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>117</v>
+      <c r="A1" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>125</v>
+      <c r="A10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10188</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8568</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="C13" s="7">
+        <v>14217</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8518</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
+      </c>
+      <c r="C15" s="7">
+        <v>12504</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>111</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8577</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>113</v>
+      </c>
+      <c r="C17" s="7">
+        <v>13971</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>115</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10091</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
+      </c>
+      <c r="C19" s="7">
+        <v>11716</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>119</v>
+      </c>
+      <c r="C20" s="7">
+        <v>13654</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>121</v>
+      </c>
+      <c r="C21" s="7">
+        <v>7065</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>161</v>
+        <v>123</v>
+      </c>
+      <c r="C22" s="7">
+        <v>5749</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
-        <v>162</v>
+      <c r="A25" s="17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>166</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>166</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>166</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2850,86 +2576,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>167</v>
+      <c r="A1" s="15" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>184</v>
+      <c r="A15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2937,22 +2663,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>188</v>
+        <v>147</v>
+      </c>
+      <c r="D16" s="7">
+        <v>691</v>
+      </c>
+      <c r="E16" s="7">
+        <v>760</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2960,22 +2686,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>194</v>
+        <v>151</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1476</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2066</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2983,22 +2709,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>200</v>
+        <v>155</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1263</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1516</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3006,22 +2732,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>205</v>
+        <v>158</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1218</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1608</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3029,22 +2755,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>211</v>
+        <v>162</v>
+      </c>
+      <c r="D20" s="7">
+        <v>609</v>
+      </c>
+      <c r="E20" s="7">
+        <v>694</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3052,22 +2778,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>216</v>
+        <v>165</v>
+      </c>
+      <c r="D21" s="7">
+        <v>844</v>
+      </c>
+      <c r="E21" s="7">
+        <v>971</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3075,22 +2801,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>221</v>
+        <v>155</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1065</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1299</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3098,22 +2824,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>225</v>
+        <v>170</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1283</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1617</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3121,22 +2847,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>229</v>
+        <v>170</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1492</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1984</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3144,22 +2870,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>234</v>
+        <v>175</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1279</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1765</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3167,22 +2893,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>238</v>
+        <v>177</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1050</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1449</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3190,22 +2916,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>242</v>
+        <v>179</v>
+      </c>
+      <c r="D27" s="7">
+        <v>973</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1070</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3213,22 +2939,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>246</v>
+        <v>151</v>
+      </c>
+      <c r="D28" s="7">
+        <v>737</v>
+      </c>
+      <c r="E28" s="7">
+        <v>862</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3236,22 +2962,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>249</v>
+        <v>162</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1229</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1426</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3259,22 +2985,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="7">
+        <v>998</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1208</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3282,22 +3008,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>256</v>
+        <v>179</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1274</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1694</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>257</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3305,22 +3031,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>260</v>
+        <v>187</v>
+      </c>
+      <c r="D32" s="7">
+        <v>840</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1075</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3328,22 +3054,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>264</v>
+        <v>189</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1421</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1862</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3351,22 +3077,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>266</v>
+        <v>179</v>
+      </c>
+      <c r="D34" s="7">
+        <v>582</v>
+      </c>
+      <c r="E34" s="7">
+        <v>809</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3374,22 +3100,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>269</v>
+        <v>190</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1446</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1894</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3397,22 +3123,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>270</v>
+        <v>147</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1446</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1692</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3420,22 +3146,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>273</v>
+        <v>191</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1278</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1751</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3443,22 +3169,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>276</v>
+        <v>151</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1255</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1707</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>277</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3466,22 +3192,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>278</v>
+        <v>184</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1426</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1840</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3489,68 +3215,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1006</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1157</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>162</v>
+      <c r="A43" s="17" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>283</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>166</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>284</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>166</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>285</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>166</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>286</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>166</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>287</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>166</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_031.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_031.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>ZESTAW ZADAŃ NR 31 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Antoni Szymański</t>
-  </si>
-  <si>
-    <t>Mikołaj Piotrowski</t>
-  </si>
-  <si>
-    <t>Anna Borkowska</t>
-  </si>
-  <si>
-    <t>Emilia Maciejewska</t>
-  </si>
-  <si>
-    <t>Adam Kowalski</t>
+    <t>Filip Krawczyk</t>
+  </si>
+  <si>
+    <t>Julia Sikorska</t>
+  </si>
+  <si>
+    <t>Maja Czarnecka</t>
+  </si>
+  <si>
+    <t>Filip Kowalski</t>
+  </si>
+  <si>
+    <t>Aleksander Kamiński</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 31 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,22 +149,22 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>Cyrkiel</t>
+    <t>Gumka do mazania</t>
   </si>
   <si>
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,34 +266,37 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Wojciechowski</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Maciejewska</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
   </si>
   <si>
     <t>Aleksander</t>
   </si>
   <si>
-    <t>Dąbrowski</t>
+    <t>Kamiński</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Grabowski</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Zieliński</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Malinowska</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -322,76 +332,34 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Zuzanna Bednarska</t>
-  </si>
-  <si>
-    <t>14.05.1980</t>
-  </si>
-  <si>
-    <t>Kacper Woźniak</t>
-  </si>
-  <si>
-    <t>26.12.1997</t>
-  </si>
-  <si>
-    <t>Adam Kwiatkowski</t>
-  </si>
-  <si>
-    <t>24.07.1998</t>
-  </si>
-  <si>
-    <t>Filip Szymański</t>
-  </si>
-  <si>
-    <t>25.10.1989</t>
-  </si>
-  <si>
-    <t>Mikołaj Zieliński</t>
-  </si>
-  <si>
-    <t>17.07.1999</t>
-  </si>
-  <si>
-    <t>Antoni Piotrowski</t>
-  </si>
-  <si>
-    <t>01.02.1978</t>
-  </si>
-  <si>
-    <t>Natalia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>12.09.1975</t>
-  </si>
-  <si>
-    <t>Zuzanna Kubiak</t>
-  </si>
-  <si>
-    <t>21.11.1985</t>
-  </si>
-  <si>
-    <t>Szymon Kaczmarek</t>
-  </si>
-  <si>
-    <t>18.06.2002</t>
-  </si>
-  <si>
-    <t>Adam Nowak</t>
-  </si>
-  <si>
-    <t>04.07.1982</t>
-  </si>
-  <si>
-    <t>Aleksander Szymański</t>
-  </si>
-  <si>
-    <t>10.11.1975</t>
-  </si>
-  <si>
-    <t>Jakub Woźniak</t>
-  </si>
-  <si>
-    <t>19.08.1998</t>
+    <t>Jakub Wojciechowski</t>
+  </si>
+  <si>
+    <t>Antoni Wojciechowski</t>
+  </si>
+  <si>
+    <t>Hanna Rogalska</t>
+  </si>
+  <si>
+    <t>Szymon Jankowski</t>
+  </si>
+  <si>
+    <t>Adam Lewandowski</t>
+  </si>
+  <si>
+    <t>Anna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Julia Borkowska</t>
+  </si>
+  <si>
+    <t>Antoni Krawczyk</t>
+  </si>
+  <si>
+    <t>Jan Kaczmarek</t>
+  </si>
+  <si>
+    <t>Antoni Kowalczyk</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -406,7 +374,70 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Anna Wilk</t>
+  </si>
+  <si>
+    <t>Oliwia Maciejewska</t>
+  </si>
+  <si>
+    <t>Antoni Wójcik</t>
+  </si>
+  <si>
+    <t>Jan Piotrowski</t>
+  </si>
+  <si>
+    <t>Julia Maciejewska</t>
+  </si>
+  <si>
+    <t>Julia Lis</t>
+  </si>
+  <si>
+    <t>Jakub Grabowski</t>
+  </si>
+  <si>
+    <t>Aleksander Zieliński</t>
+  </si>
+  <si>
+    <t>Filip Kowalczyk</t>
+  </si>
+  <si>
+    <t>Szymon Lewandowski</t>
+  </si>
+  <si>
+    <t>Szymon Piotrowski</t>
+  </si>
+  <si>
+    <t>Emilia Górska</t>
+  </si>
+  <si>
+    <t>Wojciech Kamiński</t>
+  </si>
+  <si>
+    <t>Antoni Kozłowski</t>
+  </si>
+  <si>
+    <t>Szymon Kamiński</t>
+  </si>
+  <si>
+    <t>Zuzanna Olszewska</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -460,154 +491,148 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
     <t>maj</t>
   </si>
   <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>Magdalena Szymańska</t>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
   </si>
   <si>
     <t>opolskie</t>
   </si>
   <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
+    <t>Płyta główna</t>
   </si>
   <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>śląskie</t>
   </si>
   <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
+    <t>lubuskie</t>
   </si>
   <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
-    <t>Mikrofon studyjny</t>
+    <t>Zasilacz 650W</t>
   </si>
   <si>
     <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -679,7 +704,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,12 +727,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -738,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -749,13 +768,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1062,7 +1080,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1167,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3">
         <v>2</v>
-      </c>
-      <c r="D17" s="3">
-        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -1188,13 +1206,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -1209,16 +1227,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
         <v>5</v>
       </c>
       <c r="E19" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
         <v>5</v>
@@ -1233,16 +1251,16 @@
         <v>3</v>
       </c>
       <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
         <v>4</v>
       </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
       <c r="E20" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1251,16 +1269,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3">
         <v>4</v>
       </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>4</v>
@@ -1272,13 +1290,13 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -1293,19 +1311,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1314,19 +1332,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
       </c>
       <c r="D24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1335,19 +1353,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1356,19 +1374,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
         <v>6</v>
       </c>
       <c r="D26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1377,19 +1395,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
         <v>4</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2</v>
       </c>
       <c r="D27" s="3">
         <v>2</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1398,19 +1416,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>6</v>
       </c>
       <c r="E28" s="3">
         <v>2</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1423,6 +1441,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1456,7 +1480,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1476,7 +1500,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1486,29 +1510,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1516,99 +1540,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>3.8</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>20.5</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>11.4</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3.6</v>
       </c>
       <c r="D14" s="3">
-        <v>7</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.2</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>5.3</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1.3</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
         <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>22.1</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.8</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1625,10 +1649,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1641,7 +1665,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1666,27 +1690,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1694,85 +1718,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>28.93</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>19.030000000000001</v>
       </c>
       <c r="C15" s="3">
-        <v>47</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>4.3</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>19.99</v>
       </c>
       <c r="C16" s="3">
-        <v>47</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>22.58</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>20.93</v>
       </c>
       <c r="C17" s="3">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>18.37</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5.12</v>
       </c>
       <c r="C18" s="3">
-        <v>48</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>7.68</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>15.44</v>
       </c>
       <c r="C19" s="3">
-        <v>13</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1781,8 +1805,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1790,85 +1814,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>8.46</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>14.58</v>
       </c>
       <c r="C24" s="3">
-        <v>45</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>24.5</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>30.79</v>
       </c>
       <c r="C25" s="3">
-        <v>17</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>21.37</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>13.039999999999999</v>
       </c>
       <c r="C26" s="3">
-        <v>27</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>23.65</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>28.66</v>
       </c>
       <c r="C27" s="3">
-        <v>13</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>29.13</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>23.96</v>
       </c>
       <c r="C28" s="3">
-        <v>42</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1877,8 +1901,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1886,89 +1910,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>17.94</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>27.93</v>
       </c>
       <c r="C33" s="3">
-        <v>16</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>6.8</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1.46</v>
       </c>
       <c r="C34" s="3">
-        <v>11</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>1.13</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>21.31</v>
       </c>
       <c r="C35" s="3">
-        <v>22</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>10.15</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>12.67</v>
       </c>
       <c r="C36" s="3">
-        <v>22</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>22.17</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>12.28</v>
       </c>
       <c r="C37" s="3">
-        <v>29</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1988,10 +2020,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L19"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2011,111 +2043,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2123,31 +2155,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2155,31 +2187,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
       <c r="G14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2187,31 +2219,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>4</v>
       </c>
       <c r="F15" s="3">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6</v>
-      </c>
       <c r="I15" s="3">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3">
         <v>2</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2219,70 +2251,54 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
         <v>6</v>
       </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
       <c r="H16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3">
         <v>5</v>
       </c>
-      <c r="I16" s="3">
-        <v>6</v>
-      </c>
       <c r="J16" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3">
-        <v>5</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2293,30 +2309,14 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2329,10 +2329,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A26" sqref="A26:B28"/>
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2343,205 +2343,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>91</v>
+      <c r="A1" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="7">
-        <v>10188</v>
+        <v>103</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C11" s="8">
+        <v>7874</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8568</v>
+        <v>104</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C12" s="8">
+        <v>11547</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="7">
-        <v>14217</v>
+      <c r="B13" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11801</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="7">
-        <v>8518</v>
+      <c r="B14" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C14" s="8">
+        <v>14111</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="7">
-        <v>12504</v>
+        <v>107</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C15" s="8">
+        <v>14593</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="7">
-        <v>8577</v>
+        <v>108</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C16" s="8">
+        <v>9944</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="7">
-        <v>13971</v>
+        <v>109</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C17" s="8">
+        <v>9615</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="7">
-        <v>10091</v>
+        <v>105</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3572</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="7">
-        <v>11716</v>
+        <v>106</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4717</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="7">
-        <v>13654</v>
+        <v>110</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C20" s="8">
+        <v>13636</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="7">
-        <v>7065</v>
+        <v>13</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C21" s="8">
+        <v>8235</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="7">
-        <v>5749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="17" t="s">
-        <v>124</v>
+        <v>111</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C23" s="8">
+        <v>4358</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="2"/>
+      <c r="A26" s="16" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2558,10 +2569,221 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A44" sqref="A44:B48"/>
+      <selection activeCell="A10" sqref="A10:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="3">
+        <v>157</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="3">
+        <v>165</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="3">
+        <v>125</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="3">
+        <v>129</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="3">
+        <v>157</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="3">
+        <v>200</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="3">
+        <v>155</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="3">
+        <v>112</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="3">
+        <v>130</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="3">
+        <v>145</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="3">
+        <v>170</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="3">
+        <v>198</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="3">
+        <v>114</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="3">
+        <v>125</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="3">
+        <v>183</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="3">
+        <v>135</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A46" sqref="A46:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2576,86 +2798,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>128</v>
+      <c r="A1" s="14" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2663,22 +2885,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="7">
-        <v>691</v>
-      </c>
-      <c r="E16" s="7">
-        <v>760</v>
+        <v>157</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1207</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1666</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2686,22 +2908,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1476</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2066</v>
+        <v>157</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1380</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1891</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2709,22 +2931,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1263</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1516</v>
+        <v>164</v>
+      </c>
+      <c r="D18" s="8">
+        <v>680</v>
+      </c>
+      <c r="E18" s="8">
+        <v>870</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2732,22 +2954,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1218</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1608</v>
+        <v>168</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1443</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1804</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2755,22 +2977,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="7">
-        <v>609</v>
-      </c>
-      <c r="E20" s="7">
-        <v>694</v>
+        <v>171</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1351</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1756</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2778,22 +3000,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D21" s="7">
-        <v>844</v>
-      </c>
-      <c r="E21" s="7">
-        <v>971</v>
+        <v>173</v>
+      </c>
+      <c r="D21" s="8">
+        <v>507</v>
+      </c>
+      <c r="E21" s="8">
+        <v>588</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2801,19 +3023,19 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1065</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1299</v>
+        <v>164</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1142</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1359</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>169</v>
@@ -2824,22 +3046,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1283</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1617</v>
+        <v>177</v>
+      </c>
+      <c r="D23" s="8">
+        <v>857</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1011</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2847,22 +3069,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="8">
+        <v>783</v>
+      </c>
+      <c r="E24" s="8">
+        <v>963</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1492</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1984</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2870,22 +3092,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1279</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1765</v>
+        <v>180</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1079</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1295</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2893,22 +3115,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1485</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1737</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1050</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1449</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="G26" s="3" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2916,22 +3138,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="7">
-        <v>973</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1070</v>
+        <v>185</v>
+      </c>
+      <c r="D27" s="8">
+        <v>965</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1283</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2939,22 +3161,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="7">
-        <v>737</v>
-      </c>
-      <c r="E28" s="7">
-        <v>862</v>
+        <v>183</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1294</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1488</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2962,22 +3184,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1229</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1426</v>
+        <v>189</v>
+      </c>
+      <c r="D29" s="8">
+        <v>698</v>
+      </c>
+      <c r="E29" s="8">
+        <v>817</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2985,22 +3207,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="7">
-        <v>998</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1208</v>
+        <v>185</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1443</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1645</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>176</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3008,22 +3230,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1274</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1694</v>
+        <v>171</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1279</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1496</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3031,22 +3253,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" s="7">
-        <v>840</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1075</v>
+        <v>190</v>
+      </c>
+      <c r="D32" s="8">
+        <v>625</v>
+      </c>
+      <c r="E32" s="8">
+        <v>800</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3054,22 +3276,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1421</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1862</v>
+        <v>193</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1168</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1437</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3077,22 +3299,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="7">
-        <v>582</v>
-      </c>
-      <c r="E34" s="7">
-        <v>809</v>
+        <v>195</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1359</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1848</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3100,22 +3322,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1446</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1894</v>
+        <v>168</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1398</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1678</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3123,22 +3345,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1446</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1692</v>
+        <v>197</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1301</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1678</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3146,22 +3368,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1278</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1751</v>
+        <v>190</v>
+      </c>
+      <c r="D37" s="8">
+        <v>600</v>
+      </c>
+      <c r="E37" s="8">
+        <v>702</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3169,22 +3391,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1255</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1707</v>
+        <v>189</v>
+      </c>
+      <c r="D38" s="8">
+        <v>747</v>
+      </c>
+      <c r="E38" s="8">
+        <v>881</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3192,22 +3414,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1173</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1513</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1426</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1840</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3215,58 +3437,104 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1006</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1157</v>
+        <v>177</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1351</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1716</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>196</v>
-      </c>
-      <c r="B44" s="6"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="8">
+        <v>547</v>
+      </c>
+      <c r="E41" s="8">
+        <v>689</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1054</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1286</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>197</v>
-      </c>
-      <c r="B45" s="6"/>
+      <c r="A45" s="16" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B46" s="6"/>
+        <v>204</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>199</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B50" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
